--- a/Analytics/E0/TeamFirstCard_e0.xlsx
+++ b/Analytics/E0/TeamFirstCard_e0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="38">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -52,6 +52,27 @@
     <t>7</t>
   </si>
   <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -73,85 +94,49 @@
     <t>14</t>
   </si>
   <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>AwayTeam</t>
   </si>
 </sst>
 </file>
@@ -216,10 +201,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,10 +212,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +223,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -249,7 +234,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -260,10 +245,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,10 +256,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,86 +267,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -381,7 +289,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -392,10 +300,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -403,10 +311,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -414,10 +322,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -425,10 +333,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -436,10 +344,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -447,10 +355,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -458,141 +366,97 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -612,7 +476,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -623,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -645,10 +509,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -667,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -678,130 +542,9 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -821,7 +564,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -832,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -843,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -854,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -865,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -876,10 +619,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -887,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -898,141 +641,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1063,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1077,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1085,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1096,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1107,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1118,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1129,152 +740,86 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1305,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1316,10 +861,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1327,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1338,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1349,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1360,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1371,153 +916,87 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1547,10 +1026,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1558,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1569,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1580,10 +1059,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1602,10 +1081,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1613,142 +1092,87 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1789,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1800,10 +1224,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1811,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1822,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1833,10 +1257,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1844,130 +1268,53 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1998,10 +1345,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2009,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2020,10 +1367,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2031,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2042,10 +1389,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2053,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2064,130 +1411,64 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2207,7 +1488,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2218,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2229,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2240,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2251,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2262,10 +1543,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2273,10 +1554,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2284,108 +1565,53 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2405,7 +1631,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2416,10 +1642,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2427,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2438,10 +1664,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2449,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2460,10 +1686,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2471,10 +1697,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2485,149 +1711,50 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2647,7 +1774,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2658,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2669,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2680,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2691,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2702,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2713,10 +1840,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2724,152 +1851,97 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/E0/TeamFirstCard_e0.xlsx
+++ b/Analytics/E0/TeamFirstCard_e0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="42">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -52,30 +52,33 @@
     <t>7</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Chelsea</t>
   </si>
   <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>Southampton</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Ipswich</t>
+    <t>Liverpool</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -94,16 +97,31 @@
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
   </si>
   <si>
     <t>Man City</t>
@@ -112,13 +130,7 @@
     <t>Fulham</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
+    <t>17</t>
   </si>
   <si>
     <t>Nottm Forest</t>
@@ -127,16 +139,16 @@
     <t>Everton</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
   </si>
   <si>
     <t>AwayTeam</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -212,7 +224,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -223,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -234,7 +246,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -245,10 +257,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -256,10 +268,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -267,9 +279,20 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -289,7 +312,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -300,7 +323,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -311,7 +334,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -322,10 +345,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -333,10 +356,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -344,10 +367,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -355,10 +378,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -366,18 +389,18 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -385,10 +408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -396,10 +419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -407,10 +430,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -418,10 +441,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -429,10 +452,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -440,10 +463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -451,12 +474,56 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -476,7 +543,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -487,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -509,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -520,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -531,10 +598,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -542,9 +609,64 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -564,7 +686,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -575,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -586,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -597,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -630,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -641,9 +763,42 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -674,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -685,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -696,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -718,10 +873,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -729,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -740,29 +895,29 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -770,10 +925,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -781,10 +936,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -792,10 +947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -803,10 +958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -814,12 +969,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -850,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -872,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -883,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -894,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -905,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -916,62 +1093,62 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -979,10 +1156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -990,12 +1167,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1026,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1037,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1048,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1059,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1070,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1081,10 +1291,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1092,62 +1302,62 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1155,10 +1365,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1166,12 +1376,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1202,10 +1445,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1213,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1224,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1235,10 +1478,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1246,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1257,10 +1500,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1268,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1276,10 +1519,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1287,10 +1530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1298,10 +1541,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1309,12 +1552,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1345,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -1356,10 +1610,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1367,10 +1621,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1378,10 +1632,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1400,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1411,29 +1665,29 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1441,10 +1695,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1452,10 +1706,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1463,12 +1717,45 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1488,7 +1775,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1499,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1521,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1532,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1543,10 +1830,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1554,10 +1841,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1565,18 +1852,18 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1584,10 +1871,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1595,10 +1882,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1606,12 +1893,56 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1631,7 +1962,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1642,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1653,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1664,10 +1995,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1675,10 +2006,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1686,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1697,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1708,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1716,10 +2047,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1727,10 +2058,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1738,10 +2069,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1749,12 +2080,78 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1774,7 +2171,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1785,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1796,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1807,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1829,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1840,10 +2237,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1851,73 +2248,73 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1925,10 +2322,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1936,12 +2333,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
